--- a/mapping/docs/DEMS Integration Data Mapping v1.28.xlsx
+++ b/mapping/docs/DEMS Integration Data Mapping v1.28.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work - CDS DEMS\DEMS Intergration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\justice\dems\jpss-jade-ccm\mapping\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6F351-32B2-46E8-A613-E692141494BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF5381-A104-4B38-A01A-49C3739B7AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Change Log" sheetId="3" r:id="rId1"/>
@@ -6143,7 +6143,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6604,15 +6604,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -6627,36 +6618,6 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6668,6 +6629,16 @@
           <color rgb="FF000000"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8052,6 +8023,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8836,81 +8827,81 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A292DBCF-B35F-4E38-91EC-93A3024A386F}" name="Table2" displayName="Table2" ref="A2:Y133" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60" headerRowCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A292DBCF-B35F-4E38-91EC-93A3024A386F}" name="Table2" displayName="Table2" ref="A2:Y133" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58" headerRowCellStyle="Good">
   <autoFilter ref="A2:Y133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{835DEB9C-EF50-49F3-AADC-8EEC259AD441}" name="#" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{8E79AED4-9838-4FD0-9B84-9FCF2119C980}" name="Status" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{A4589D1E-D2D1-4CEC-B6FA-6090826F1D45}" name="Scenario ID" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{40563DC3-C720-4025-8178-BBB7E36F5A72}" name="Scenario Name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{CEA1207D-90E6-4713-9B1D-FDF532A800C8}" name="Last Updated" dataDxfId="55"/>
-    <tableColumn id="24" xr3:uid="{2533895D-2549-4674-83B0-8614B76881B2}" name="Business Rule if 1 Court File Exists" dataDxfId="54"/>
-    <tableColumn id="23" xr3:uid="{154E07DF-484A-4B9E-96F0-19453C82547B}" name="DEMS Mapping Rule IF: 2 RCCs; Single Court File" dataDxfId="53"/>
-    <tableColumn id="25" xr3:uid="{7434B9C5-EF80-4F68-921D-E8F74173D209}" name="1 RCCs; 2 Court Cases" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{CA0626E0-56F3-42D4-9D46-C866C1128CB3}" name="JUSTIN Field #" dataDxfId="51"/>
-    <tableColumn id="21" xr3:uid="{75D98204-8E7B-4EFE-BAB5-48B68ECEB743}" name="JUSTIN Source" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{3ADDC782-0076-436D-B6D9-3F61F3C19AAF}" name="JUSTIN Data Element" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{E8B7DD64-48AC-4CA5-A297-D08EA732EB76}" name="JUSTIN Data Label" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{5BC3FDBB-2BD9-46CD-8A3F-9938767E0B66}" name="JUSTIN Data Description" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{11ECEB32-CAB5-4C86-B58D-C17D16FBAA1F}" name="JUSTIN Sample Data" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{D09AB9DD-52FF-4DF7-AE25-0D694B6F01B1}" name="JUSTIN to Common Mapping Rules" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{D4AE8E14-6396-41D2-BC89-18DD52849BE2}" name="JUSTIN to Common Mapping Sample Data" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{B4F6F913-B7DE-4BA0-B52D-31728062A38D}" name="Common Data Element" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{C34386F3-CD56-407B-BA5A-3C9C19CFC499}" name="Common Data Type" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{E9F54F19-D5FE-4557-A6B7-9D5B084EC9A9}" name="Common to DEMS Mapping Rules" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{EA92266D-452D-45AF-B0EB-C90A4219660F}" name="Common to DEMS Mapping  Sample Data" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{50F4E4ED-21B9-4476-9E2E-5A978C219888}" name="DEMS Data Element" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{CDC2C70F-F494-4B60-A113-6BA8074AFB61}" name="DEMS Data Element Type" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{56EB14F6-1C9B-4B5C-B520-7C2B782FD072}" name="Business Value or Decision" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{439A6CB0-3E94-459D-94D4-B0E6CDAF1070}" name="Priority (MoSCoW)" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{B9BF0D1A-DA40-43A3-A56B-2B0D1933177B}" name="Additional Details" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{835DEB9C-EF50-49F3-AADC-8EEC259AD441}" name="#" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{8E79AED4-9838-4FD0-9B84-9FCF2119C980}" name="Status" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{A4589D1E-D2D1-4CEC-B6FA-6090826F1D45}" name="Scenario ID" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{40563DC3-C720-4025-8178-BBB7E36F5A72}" name="Scenario Name" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{CEA1207D-90E6-4713-9B1D-FDF532A800C8}" name="Last Updated" dataDxfId="53"/>
+    <tableColumn id="24" xr3:uid="{2533895D-2549-4674-83B0-8614B76881B2}" name="Business Rule if 1 Court File Exists" dataDxfId="52"/>
+    <tableColumn id="23" xr3:uid="{154E07DF-484A-4B9E-96F0-19453C82547B}" name="DEMS Mapping Rule IF: 2 RCCs; Single Court File" dataDxfId="51"/>
+    <tableColumn id="25" xr3:uid="{7434B9C5-EF80-4F68-921D-E8F74173D209}" name="1 RCCs; 2 Court Cases" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{CA0626E0-56F3-42D4-9D46-C866C1128CB3}" name="JUSTIN Field #" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{75D98204-8E7B-4EFE-BAB5-48B68ECEB743}" name="JUSTIN Source" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{3ADDC782-0076-436D-B6D9-3F61F3C19AAF}" name="JUSTIN Data Element" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{E8B7DD64-48AC-4CA5-A297-D08EA732EB76}" name="JUSTIN Data Label" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{5BC3FDBB-2BD9-46CD-8A3F-9938767E0B66}" name="JUSTIN Data Description" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{11ECEB32-CAB5-4C86-B58D-C17D16FBAA1F}" name="JUSTIN Sample Data" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{D09AB9DD-52FF-4DF7-AE25-0D694B6F01B1}" name="JUSTIN to Common Mapping Rules" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{D4AE8E14-6396-41D2-BC89-18DD52849BE2}" name="JUSTIN to Common Mapping Sample Data" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{B4F6F913-B7DE-4BA0-B52D-31728062A38D}" name="Common Data Element" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{C34386F3-CD56-407B-BA5A-3C9C19CFC499}" name="Common Data Type" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{E9F54F19-D5FE-4557-A6B7-9D5B084EC9A9}" name="Common to DEMS Mapping Rules" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{EA92266D-452D-45AF-B0EB-C90A4219660F}" name="Common to DEMS Mapping  Sample Data" dataDxfId="38"/>
+    <tableColumn id="17" xr3:uid="{50F4E4ED-21B9-4476-9E2E-5A978C219888}" name="DEMS Data Element" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{CDC2C70F-F494-4B60-A113-6BA8074AFB61}" name="DEMS Data Element Type" dataDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{56EB14F6-1C9B-4B5C-B520-7C2B782FD072}" name="Business Value or Decision" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{439A6CB0-3E94-459D-94D4-B0E6CDAF1070}" name="Priority (MoSCoW)" dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{B9BF0D1A-DA40-43A3-A56B-2B0D1933177B}" name="Additional Details" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F267613C-2B6D-4D0C-A82D-4359FB3A59EE}" name="Table26" displayName="Table26" ref="A1:X289" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30" headerRowCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F267613C-2B6D-4D0C-A82D-4359FB3A59EE}" name="Table26" displayName="Table26" ref="A1:X289" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28" headerRowCellStyle="Good">
   <autoFilter ref="A1:X289" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{A9195C10-709E-40CA-80C2-C4DF4EDFA840}" name="#" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{CD4EC1E0-FAAF-4290-A752-DBD071505A9A}" name="Validated" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A64E3AD1-BE1D-424D-84F9-1466EA7CCA92}" name="Scenario ID" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{84F93A0D-80BC-44CC-A078-F85953C77A00}" name="Scenario Name" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{645CE0BA-BD2D-465E-A476-A7637AAA8F70}" name="Last Updated" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{02061713-39D1-4AF2-B139-18748C50EC09}" name="JUSTIN Field #" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{C3712E0E-0BE9-4507-AECE-42D7E32B8B1B}" name="JUSTIN Source" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{29E11EBF-C463-4A7F-A271-236A9C35B466}" name="JUSTIN Data Element" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{4D5989DD-AA2D-46AF-A7A0-C31A443BFFBB}" name="JUSTIN Data Label" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{CE8FCF65-9EB0-42E9-A65A-3B1B9CF0AA89}" name="JUSTIN Data Description" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{CFBC147F-7882-422E-B5A6-45DA113F1980}" name="JUSTIN Sample Data" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{BBD203FA-898E-4259-99BD-B82B796C4941}" name="JUSTIN to Common Mapping Rules" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{9E0285ED-3B81-4B80-9A33-C831529ADE08}" name="JUSTIN to Common Mapping Sample Data" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{5FE3C9C8-D7D8-4ACC-A17D-E1FF43E7E281}" name="Common Data Element" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{392308B7-C3CE-4ACB-BF5B-9845E4D4345D}" name="Common Data Type" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{5A1CC180-34E7-43C9-A164-EC619FF08B66}" name="Common to DEMS Mapping Rules" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{C4932F0F-78D9-4B13-ADA6-87B28ABD3E09}" name="Common to DEMS Mapping Sample Data" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{AC378B7C-DF44-4375-93E3-459F097B3922}" name="DEMS Record Data Element" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{E1D75798-9BD5-49E6-BA05-E574F95837CF}" name="DEMS Record Data Element Type" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{27943554-9161-4066-8087-D5479A69AC09}" name="Full Text Index Y/N" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{430F13FE-16D8-4573-B7D6-0B04C5561A51}" name="List Values (if Applicable)" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{14327E4C-7CDD-4B06-A4C6-79FBE46B2C68}" name="Business Value or Decision" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{ADA4BB0F-AE46-4F36-A252-54A9FCC41DB5}" name="Priority (MoSCoW)" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{7B0E55A8-1445-4667-99A0-AF0F9436733C}" name="Additional Details" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A9195C10-709E-40CA-80C2-C4DF4EDFA840}" name="#" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{CD4EC1E0-FAAF-4290-A752-DBD071505A9A}" name="Validated" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A64E3AD1-BE1D-424D-84F9-1466EA7CCA92}" name="Scenario ID" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{84F93A0D-80BC-44CC-A078-F85953C77A00}" name="Scenario Name" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{645CE0BA-BD2D-465E-A476-A7637AAA8F70}" name="Last Updated" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{02061713-39D1-4AF2-B139-18748C50EC09}" name="JUSTIN Field #" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{C3712E0E-0BE9-4507-AECE-42D7E32B8B1B}" name="JUSTIN Source" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{29E11EBF-C463-4A7F-A271-236A9C35B466}" name="JUSTIN Data Element" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{4D5989DD-AA2D-46AF-A7A0-C31A443BFFBB}" name="JUSTIN Data Label" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{CE8FCF65-9EB0-42E9-A65A-3B1B9CF0AA89}" name="JUSTIN Data Description" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{CFBC147F-7882-422E-B5A6-45DA113F1980}" name="JUSTIN Sample Data" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{BBD203FA-898E-4259-99BD-B82B796C4941}" name="JUSTIN to Common Mapping Rules" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{9E0285ED-3B81-4B80-9A33-C831529ADE08}" name="JUSTIN to Common Mapping Sample Data" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{5FE3C9C8-D7D8-4ACC-A17D-E1FF43E7E281}" name="Common Data Element" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{392308B7-C3CE-4ACB-BF5B-9845E4D4345D}" name="Common Data Type" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{5A1CC180-34E7-43C9-A164-EC619FF08B66}" name="Common to DEMS Mapping Rules" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{C4932F0F-78D9-4B13-ADA6-87B28ABD3E09}" name="Common to DEMS Mapping Sample Data" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{AC378B7C-DF44-4375-93E3-459F097B3922}" name="DEMS Record Data Element" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{E1D75798-9BD5-49E6-BA05-E574F95837CF}" name="DEMS Record Data Element Type" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{27943554-9161-4066-8087-D5479A69AC09}" name="Full Text Index Y/N" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{430F13FE-16D8-4573-B7D6-0B04C5561A51}" name="List Values (if Applicable)" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{14327E4C-7CDD-4B06-A4C6-79FBE46B2C68}" name="Business Value or Decision" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{ADA4BB0F-AE46-4F36-A252-54A9FCC41DB5}" name="Priority (MoSCoW)" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{7B0E55A8-1445-4667-99A0-AF0F9436733C}" name="Additional Details" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79AD4C23-39D1-4AA8-B7F6-FEFD067B2486}" name="Table6" displayName="Table6" ref="A2:E30" totalsRowShown="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79AD4C23-39D1-4AA8-B7F6-FEFD067B2486}" name="Table6" displayName="Table6" ref="A2:E30" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="A2:E30" xr:uid="{79AD4C23-39D1-4AA8-B7F6-FEFD067B2486}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6FD95F5C-7E10-485D-B20E-1B5C166ABA99}" name="#"/>
     <tableColumn id="2" xr3:uid="{BDFFD62E-4E0E-4B30-B913-6E8D6BBDF986}" name="Validated"/>
     <tableColumn id="3" xr3:uid="{298390F8-86A7-44AB-84C4-69F864D6DAB4}" name="Last Updated"/>
-    <tableColumn id="4" xr3:uid="{B1D00C55-E592-4751-B0E0-BC7AE40F2111}" name="Input Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{61A7ACE4-0865-47C3-BC0F-ABC5EDD62BF8}" name="Output" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B1D00C55-E592-4751-B0E0-BC7AE40F2111}" name="Input Description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{61A7ACE4-0865-47C3-BC0F-ABC5EDD62BF8}" name="Output" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9228,15 +9219,15 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9250,7 +9241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.5" thickTop="1">
+    <row r="2" spans="1:4" ht="30.75" thickTop="1">
       <c r="A2" s="5">
         <v>44700</v>
       </c>
@@ -9264,7 +9255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="5">
         <v>44700</v>
       </c>
@@ -9278,7 +9269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="5">
         <v>44701</v>
       </c>
@@ -9320,7 +9311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="5">
         <v>44707</v>
       </c>
@@ -9334,7 +9325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72.5">
+    <row r="8" spans="1:4" ht="90">
       <c r="A8" s="5">
         <v>44708</v>
       </c>
@@ -9348,7 +9339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="174">
+    <row r="9" spans="1:4" ht="180">
       <c r="A9" s="5">
         <v>44714</v>
       </c>
@@ -9362,7 +9353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="5">
         <v>44717</v>
       </c>
@@ -9404,7 +9395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="5">
         <v>44720</v>
       </c>
@@ -9418,7 +9409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="87">
+    <row r="14" spans="1:4" ht="90">
       <c r="A14" s="5">
         <v>44721</v>
       </c>
@@ -9461,7 +9452,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="116">
+    <row r="19" spans="1:4" ht="120">
       <c r="A19" s="5">
         <v>44818</v>
       </c>
@@ -9486,7 +9477,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="159.5">
+    <row r="21" spans="1:4" ht="195">
       <c r="A21" s="5">
         <v>44824</v>
       </c>
@@ -9514,7 +9505,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="217.5">
+    <row r="23" spans="1:4" ht="240">
       <c r="A23" s="5">
         <v>44839</v>
       </c>
@@ -9528,7 +9519,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72.5">
+    <row r="24" spans="1:4" ht="75">
       <c r="A24" s="5">
         <v>44841</v>
       </c>
@@ -9542,7 +9533,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="101.5">
+    <row r="25" spans="1:4" ht="105">
       <c r="A25" s="5">
         <v>44869</v>
       </c>
@@ -9556,7 +9547,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="72.5">
+    <row r="26" spans="1:4" ht="75">
       <c r="A26" s="5">
         <v>44931</v>
       </c>
@@ -9570,7 +9561,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29">
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="5">
         <v>44959</v>
       </c>
@@ -9584,7 +9575,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="58">
+    <row r="28" spans="1:4" ht="60">
       <c r="A28" s="5">
         <v>44980</v>
       </c>
@@ -9612,7 +9603,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="87">
+    <row r="30" spans="1:4" ht="90">
       <c r="A30" s="5">
         <v>44995</v>
       </c>
@@ -9626,7 +9617,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72.5">
+    <row r="31" spans="1:4" ht="90">
       <c r="A31" s="5">
         <v>45034</v>
       </c>
@@ -9640,7 +9631,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="58">
+    <row r="32" spans="1:4" ht="60">
       <c r="B32" s="2">
         <v>1.28</v>
       </c>
@@ -9663,15 +9654,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="57" customFormat="1" ht="46.5" customHeight="1">
@@ -9694,7 +9685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="61">
         <v>1</v>
       </c>
@@ -9714,7 +9705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72.5">
+    <row r="3" spans="1:6" ht="105">
       <c r="A3" s="61">
         <v>1</v>
       </c>
@@ -9732,7 +9723,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="362.5">
+    <row r="4" spans="1:6" ht="375">
       <c r="A4" s="61">
         <v>2</v>
       </c>
@@ -9750,7 +9741,7 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="145">
+    <row r="5" spans="1:6" ht="150">
       <c r="A5" s="61">
         <v>2</v>
       </c>
@@ -9770,7 +9761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.5">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="61">
         <v>2</v>
       </c>
@@ -9790,7 +9781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="72.5">
+    <row r="7" spans="1:6" ht="75">
       <c r="A7" s="61">
         <v>3</v>
       </c>
@@ -9808,7 +9799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72.5">
+    <row r="8" spans="1:6" ht="75">
       <c r="A8" s="61">
         <v>3</v>
       </c>
@@ -9826,7 +9817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72.5">
+    <row r="9" spans="1:6" ht="75">
       <c r="A9" s="61">
         <v>3</v>
       </c>
@@ -9844,7 +9835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="61">
         <v>3</v>
       </c>
@@ -9862,7 +9853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58">
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="61">
         <v>3</v>
       </c>
@@ -9916,7 +9907,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="72.5">
+    <row r="14" spans="1:6" ht="75">
       <c r="A14" s="61">
         <v>5</v>
       </c>
@@ -9934,7 +9925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="72.5">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="61">
         <v>5</v>
       </c>
@@ -9954,7 +9945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="87">
+    <row r="16" spans="1:6" ht="90">
       <c r="A16" s="61">
         <v>6</v>
       </c>
@@ -9974,7 +9965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="72.5">
+    <row r="17" spans="1:6" ht="75">
       <c r="A17" s="56">
         <v>6</v>
       </c>
@@ -9992,7 +9983,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="29">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="61">
         <v>6</v>
       </c>
@@ -10022,37 +10013,37 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U90" sqref="U90"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="71" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="71" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="72" customWidth="1"/>
-    <col min="5" max="8" width="18.453125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="72" customWidth="1"/>
+    <col min="5" max="8" width="18.42578125" style="72" customWidth="1"/>
     <col min="9" max="9" width="20" style="72" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="72" customWidth="1"/>
     <col min="11" max="11" width="34" style="72" customWidth="1"/>
     <col min="12" max="12" width="29" style="72" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="42.453125" style="72" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" style="72" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="27" style="72" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="36.453125" style="72" customWidth="1"/>
-    <col min="16" max="16" width="43.453125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="43.42578125" style="72" customWidth="1"/>
     <col min="17" max="17" width="38" style="72" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="72" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="40.453125" style="72" customWidth="1"/>
-    <col min="20" max="20" width="43.1796875" style="72" customWidth="1"/>
-    <col min="21" max="22" width="34.453125" style="72" customWidth="1"/>
-    <col min="23" max="23" width="31.453125" style="72" customWidth="1"/>
-    <col min="24" max="24" width="24.453125" style="72" customWidth="1"/>
-    <col min="25" max="25" width="31.453125" style="72" customWidth="1"/>
-    <col min="26" max="16384" width="16.453125" style="72"/>
+    <col min="18" max="18" width="23.42578125" style="72" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="40.42578125" style="72" customWidth="1"/>
+    <col min="20" max="20" width="43.140625" style="72" customWidth="1"/>
+    <col min="21" max="22" width="34.42578125" style="72" customWidth="1"/>
+    <col min="23" max="23" width="31.42578125" style="72" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" style="72" customWidth="1"/>
+    <col min="25" max="25" width="31.42578125" style="72" customWidth="1"/>
+    <col min="26" max="16384" width="16.42578125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="98.25" customHeight="1">
@@ -10146,7 +10137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" ht="159.5">
+    <row r="3" spans="1:25" customFormat="1" ht="180">
       <c r="A3" s="58">
         <v>57</v>
       </c>
@@ -10221,7 +10212,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:25" customFormat="1" ht="43.5">
+    <row r="4" spans="1:25" customFormat="1" ht="45">
       <c r="A4" s="58">
         <v>28</v>
       </c>
@@ -10294,7 +10285,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="5" spans="1:25" customFormat="1" ht="174">
+    <row r="5" spans="1:25" customFormat="1" ht="180">
       <c r="A5" s="58">
         <v>58</v>
       </c>
@@ -10367,7 +10358,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="1:25" customFormat="1" ht="159.5">
+    <row r="6" spans="1:25" customFormat="1" ht="180">
       <c r="A6" s="58">
         <v>74</v>
       </c>
@@ -10444,7 +10435,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:25" customFormat="1" ht="217.5">
+    <row r="7" spans="1:25" customFormat="1" ht="225">
       <c r="A7" s="58">
         <v>69</v>
       </c>
@@ -10521,7 +10512,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:25" customFormat="1" ht="43.5">
+    <row r="8" spans="1:25" customFormat="1" ht="45">
       <c r="A8" s="58">
         <v>78</v>
       </c>
@@ -10594,7 +10585,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" ht="43.5">
+    <row r="9" spans="1:25" customFormat="1" ht="45">
       <c r="A9" s="58">
         <v>80</v>
       </c>
@@ -10663,7 +10654,7 @@
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
     </row>
-    <row r="10" spans="1:25" ht="43.5">
+    <row r="10" spans="1:25" ht="45">
       <c r="A10" s="58">
         <v>81</v>
       </c>
@@ -10732,7 +10723,7 @@
       <c r="X10" s="69"/>
       <c r="Y10" s="69"/>
     </row>
-    <row r="11" spans="1:25" ht="43.5">
+    <row r="11" spans="1:25" ht="45">
       <c r="A11" s="58">
         <v>134</v>
       </c>
@@ -10801,7 +10792,7 @@
       <c r="X11" s="69"/>
       <c r="Y11" s="69"/>
     </row>
-    <row r="12" spans="1:25" ht="58">
+    <row r="12" spans="1:25" ht="60">
       <c r="A12" s="58">
         <v>63</v>
       </c>
@@ -10876,7 +10867,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="43.5">
+    <row r="13" spans="1:25" ht="45">
       <c r="A13" s="58">
         <v>76</v>
       </c>
@@ -10949,7 +10940,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="58">
+    <row r="14" spans="1:25" ht="60">
       <c r="A14" s="58">
         <v>77</v>
       </c>
@@ -11022,7 +11013,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" ht="87">
+    <row r="15" spans="1:25" customFormat="1" ht="90">
       <c r="A15" s="58">
         <v>98</v>
       </c>
@@ -11097,7 +11088,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" ht="188.5">
+    <row r="16" spans="1:25" customFormat="1" ht="210">
       <c r="A16" s="58">
         <v>32</v>
       </c>
@@ -11172,7 +11163,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="87">
+    <row r="17" spans="1:25" ht="105">
       <c r="A17" s="58">
         <v>29</v>
       </c>
@@ -11247,7 +11238,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="18" spans="1:25" customFormat="1" ht="159.5">
+    <row r="18" spans="1:25" customFormat="1" ht="180">
       <c r="A18" s="58">
         <v>34</v>
       </c>
@@ -11322,7 +11313,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="19" spans="1:25" customFormat="1" ht="116">
+    <row r="19" spans="1:25" customFormat="1" ht="135">
       <c r="A19" s="58">
         <v>35</v>
       </c>
@@ -11397,7 +11388,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="20" spans="1:25" customFormat="1" ht="159.5">
+    <row r="20" spans="1:25" customFormat="1" ht="180">
       <c r="A20" s="58">
         <v>36</v>
       </c>
@@ -11472,7 +11463,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="21" spans="1:25" customFormat="1" ht="101.5">
+    <row r="21" spans="1:25" customFormat="1" ht="105">
       <c r="A21" s="58">
         <v>21</v>
       </c>
@@ -11545,7 +11536,7 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" customFormat="1" ht="87">
+    <row r="22" spans="1:25" customFormat="1" ht="90">
       <c r="A22" s="58">
         <v>22</v>
       </c>
@@ -11622,7 +11613,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="23" spans="1:25" customFormat="1" ht="87">
+    <row r="23" spans="1:25" customFormat="1" ht="90">
       <c r="A23" s="58">
         <v>87</v>
       </c>
@@ -11697,7 +11688,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="24" spans="1:25" customFormat="1" ht="43.5">
+    <row r="24" spans="1:25" customFormat="1" ht="60">
       <c r="A24" s="63">
         <v>60</v>
       </c>
@@ -11768,7 +11759,7 @@
       </c>
       <c r="Y24" s="65"/>
     </row>
-    <row r="25" spans="1:25" s="6" customFormat="1" ht="87">
+    <row r="25" spans="1:25" s="6" customFormat="1" ht="90">
       <c r="A25" s="58">
         <v>73</v>
       </c>
@@ -11840,7 +11831,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:25" customFormat="1" ht="116">
+    <row r="26" spans="1:25" customFormat="1" ht="135">
       <c r="A26" s="89">
         <v>7</v>
       </c>
@@ -11917,7 +11908,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="27" spans="1:25" customFormat="1" ht="29">
+    <row r="27" spans="1:25" customFormat="1" ht="30">
       <c r="A27" s="58">
         <v>59</v>
       </c>
@@ -11990,7 +11981,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="28" spans="1:25" customFormat="1" ht="58">
+    <row r="28" spans="1:25" customFormat="1" ht="90">
       <c r="A28" s="58">
         <v>61</v>
       </c>
@@ -12132,7 +12123,7 @@
       <c r="X29" s="69"/>
       <c r="Y29" s="69"/>
     </row>
-    <row r="30" spans="1:25" customFormat="1" ht="130.5">
+    <row r="30" spans="1:25" customFormat="1" ht="135">
       <c r="A30" s="63">
         <v>71</v>
       </c>
@@ -12207,7 +12198,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:25" customFormat="1" ht="87">
+    <row r="31" spans="1:25" customFormat="1" ht="90">
       <c r="A31" s="136">
         <v>72</v>
       </c>
@@ -12278,7 +12269,7 @@
       </c>
       <c r="Y31" s="6"/>
     </row>
-    <row r="32" spans="1:25" customFormat="1" ht="87">
+    <row r="32" spans="1:25" customFormat="1" ht="90">
       <c r="A32" s="89">
         <v>16</v>
       </c>
@@ -12355,7 +12346,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="33" spans="1:26" customFormat="1" ht="101.5">
+    <row r="33" spans="1:26" customFormat="1" ht="120">
       <c r="A33" s="58">
         <v>8</v>
       </c>
@@ -12430,7 +12421,7 @@
       </c>
       <c r="Y33" s="6"/>
     </row>
-    <row r="34" spans="1:26" s="6" customFormat="1" ht="29">
+    <row r="34" spans="1:26" s="6" customFormat="1" ht="30">
       <c r="A34" s="58">
         <v>9</v>
       </c>
@@ -12505,7 +12496,7 @@
       </c>
       <c r="Z34" s="88"/>
     </row>
-    <row r="35" spans="1:26" customFormat="1" ht="29">
+    <row r="35" spans="1:26" customFormat="1" ht="30">
       <c r="A35" s="58">
         <v>10</v>
       </c>
@@ -12580,7 +12571,7 @@
       </c>
       <c r="Y35" s="6"/>
     </row>
-    <row r="36" spans="1:26" customFormat="1" ht="130.5">
+    <row r="36" spans="1:26" customFormat="1" ht="135">
       <c r="A36" s="83">
         <v>12</v>
       </c>
@@ -12655,7 +12646,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:26" customFormat="1" ht="130.5">
+    <row r="37" spans="1:26" customFormat="1" ht="135">
       <c r="A37" s="83">
         <v>13</v>
       </c>
@@ -12730,7 +12721,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="38" spans="1:26" customFormat="1" ht="29">
+    <row r="38" spans="1:26" customFormat="1" ht="30">
       <c r="A38" s="58">
         <v>14</v>
       </c>
@@ -12803,7 +12794,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="39" spans="1:26" customFormat="1" ht="145">
+    <row r="39" spans="1:26" customFormat="1" ht="165">
       <c r="A39" s="58">
         <v>15</v>
       </c>
@@ -12880,7 +12871,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="1:26" customFormat="1" ht="145">
+    <row r="40" spans="1:26" customFormat="1" ht="165">
       <c r="A40" s="58">
         <v>17</v>
       </c>
@@ -12955,7 +12946,7 @@
       </c>
       <c r="Y40" s="59"/>
     </row>
-    <row r="41" spans="1:26" customFormat="1" ht="87">
+    <row r="41" spans="1:26" customFormat="1" ht="90">
       <c r="A41" s="58">
         <v>23</v>
       </c>
@@ -13028,7 +13019,7 @@
       </c>
       <c r="Y41" s="6"/>
     </row>
-    <row r="42" spans="1:26" customFormat="1" ht="290">
+    <row r="42" spans="1:26" customFormat="1" ht="315">
       <c r="A42" s="58">
         <v>24</v>
       </c>
@@ -13105,7 +13096,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="43" spans="1:26" customFormat="1" ht="87">
+    <row r="43" spans="1:26" customFormat="1" ht="90">
       <c r="A43" s="58">
         <v>25</v>
       </c>
@@ -13178,7 +13169,7 @@
       </c>
       <c r="Y43" s="6"/>
     </row>
-    <row r="44" spans="1:26" customFormat="1" ht="232">
+    <row r="44" spans="1:26" customFormat="1" ht="285">
       <c r="A44" s="58">
         <v>26</v>
       </c>
@@ -13251,7 +13242,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="1:26" customFormat="1" ht="130.5">
+    <row r="45" spans="1:26" customFormat="1" ht="135">
       <c r="A45" s="58">
         <v>30</v>
       </c>
@@ -13326,7 +13317,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:26" customFormat="1" ht="188.5">
+    <row r="46" spans="1:26" customFormat="1" ht="240">
       <c r="A46" s="58">
         <v>31</v>
       </c>
@@ -13397,7 +13388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:26" customFormat="1" ht="116">
+    <row r="47" spans="1:26" customFormat="1" ht="135">
       <c r="A47" s="58">
         <v>33</v>
       </c>
@@ -13472,7 +13463,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:26" customFormat="1" ht="409.5">
+    <row r="48" spans="1:26" customFormat="1" ht="399">
       <c r="A48" s="58">
         <v>38</v>
       </c>
@@ -13547,7 +13538,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="256">
+    <row r="49" spans="1:25" customFormat="1" ht="256.5">
       <c r="A49" s="58">
         <v>39</v>
       </c>
@@ -13620,7 +13611,7 @@
       </c>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="174">
+    <row r="50" spans="1:25" customFormat="1" ht="180">
       <c r="A50" s="58">
         <v>40</v>
       </c>
@@ -13691,7 +13682,7 @@
       <c r="X50" s="14"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="160">
+    <row r="51" spans="1:25" customFormat="1" ht="156.75">
       <c r="A51" s="58">
         <v>41</v>
       </c>
@@ -13764,7 +13755,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="112">
+    <row r="52" spans="1:25" customFormat="1" ht="114">
       <c r="A52" s="58">
         <v>42</v>
       </c>
@@ -13837,7 +13828,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:25" customFormat="1" ht="112">
+    <row r="53" spans="1:25" customFormat="1" ht="114">
       <c r="A53" s="58">
         <v>43</v>
       </c>
@@ -13910,7 +13901,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="112">
+    <row r="54" spans="1:25" customFormat="1" ht="114">
       <c r="A54" s="58">
         <v>44</v>
       </c>
@@ -13985,7 +13976,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="217.5">
+    <row r="55" spans="1:25" customFormat="1" ht="240">
       <c r="A55" s="58">
         <v>45</v>
       </c>
@@ -14056,7 +14047,7 @@
       </c>
       <c r="Y55" s="67"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="192">
+    <row r="56" spans="1:25" customFormat="1" ht="185.25">
       <c r="A56" s="58">
         <v>46</v>
       </c>
@@ -14129,7 +14120,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="1:25" customFormat="1" ht="176">
+    <row r="57" spans="1:25" customFormat="1" ht="171">
       <c r="A57" s="58">
         <v>47</v>
       </c>
@@ -14202,7 +14193,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="43.5">
+    <row r="58" spans="1:25" customFormat="1" ht="60">
       <c r="A58" s="58">
         <v>48</v>
       </c>
@@ -14275,7 +14266,7 @@
       </c>
       <c r="Y58" s="6"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="43.5">
+    <row r="59" spans="1:25" customFormat="1" ht="60">
       <c r="A59" s="58">
         <v>49</v>
       </c>
@@ -14348,7 +14339,7 @@
       </c>
       <c r="Y59" s="69"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="43.5">
+    <row r="60" spans="1:25" customFormat="1" ht="60">
       <c r="A60" s="58">
         <v>50</v>
       </c>
@@ -14421,7 +14412,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="116">
+    <row r="61" spans="1:25" customFormat="1" ht="120">
       <c r="A61" s="58">
         <v>51</v>
       </c>
@@ -14496,7 +14487,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:25" customFormat="1" ht="116">
+    <row r="62" spans="1:25" customFormat="1" ht="120">
       <c r="A62" s="58">
         <v>52</v>
       </c>
@@ -14571,7 +14562,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:25" customFormat="1" ht="145">
+    <row r="63" spans="1:25" customFormat="1" ht="165">
       <c r="A63" s="58">
         <v>53</v>
       </c>
@@ -14648,7 +14639,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="145">
+    <row r="64" spans="1:25" customFormat="1" ht="165">
       <c r="A64" s="58">
         <v>54</v>
       </c>
@@ -14723,7 +14714,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="65" spans="1:25" customFormat="1" ht="101.5">
+    <row r="65" spans="1:25" customFormat="1" ht="120">
       <c r="A65" s="58">
         <v>55</v>
       </c>
@@ -14800,7 +14791,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="66" spans="1:25" customFormat="1" ht="174">
+    <row r="66" spans="1:25" customFormat="1" ht="195">
       <c r="A66" s="58">
         <v>56</v>
       </c>
@@ -14877,7 +14868,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="67" spans="1:25" customFormat="1" ht="58">
+    <row r="67" spans="1:25" customFormat="1" ht="60">
       <c r="A67" s="58">
         <v>62</v>
       </c>
@@ -14950,7 +14941,7 @@
       </c>
       <c r="Y67" s="6"/>
     </row>
-    <row r="68" spans="1:25" customFormat="1" ht="29">
+    <row r="68" spans="1:25" customFormat="1" ht="30">
       <c r="A68" s="58">
         <v>64</v>
       </c>
@@ -15019,7 +15010,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
     </row>
-    <row r="69" spans="1:25" customFormat="1" ht="87">
+    <row r="69" spans="1:25" customFormat="1" ht="90">
       <c r="A69" s="58">
         <v>70</v>
       </c>
@@ -15090,7 +15081,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="70" spans="1:25" customFormat="1" ht="29">
+    <row r="70" spans="1:25" customFormat="1" ht="30">
       <c r="A70" s="58">
         <v>84</v>
       </c>
@@ -15163,7 +15154,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="71" spans="1:25" customFormat="1" ht="29">
+    <row r="71" spans="1:25" customFormat="1" ht="30">
       <c r="A71" s="58">
         <v>85</v>
       </c>
@@ -15236,7 +15227,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="72" spans="1:25" customFormat="1" ht="29">
+    <row r="72" spans="1:25" customFormat="1" ht="30">
       <c r="A72" s="58">
         <v>86</v>
       </c>
@@ -15309,7 +15300,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="73" spans="1:25" customFormat="1" ht="29">
+    <row r="73" spans="1:25" customFormat="1" ht="30">
       <c r="A73" s="58">
         <v>104</v>
       </c>
@@ -15382,7 +15373,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="74" spans="1:25" customFormat="1" ht="87">
+    <row r="74" spans="1:25" customFormat="1" ht="90">
       <c r="A74" s="58">
         <v>108</v>
       </c>
@@ -15453,7 +15444,7 @@
       <c r="X74" s="69"/>
       <c r="Y74" s="69"/>
     </row>
-    <row r="75" spans="1:25" customFormat="1" ht="101.5">
+    <row r="75" spans="1:25" customFormat="1" ht="105">
       <c r="A75" s="58">
         <v>18</v>
       </c>
@@ -15528,7 +15519,7 @@
       </c>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" spans="1:25" customFormat="1" ht="304.5">
+    <row r="76" spans="1:25" customFormat="1" ht="315">
       <c r="A76" s="63">
         <v>20</v>
       </c>
@@ -15605,7 +15596,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="77" spans="1:25" customFormat="1" ht="101.5">
+    <row r="77" spans="1:25" customFormat="1" ht="105">
       <c r="A77" s="58">
         <v>11</v>
       </c>
@@ -15680,7 +15671,7 @@
       </c>
       <c r="Y77" s="65"/>
     </row>
-    <row r="78" spans="1:25" customFormat="1" ht="58">
+    <row r="78" spans="1:25" customFormat="1" ht="75">
       <c r="A78" s="58">
         <v>65</v>
       </c>
@@ -15749,7 +15740,7 @@
       <c r="X78" s="65"/>
       <c r="Y78" s="65"/>
     </row>
-    <row r="79" spans="1:25" ht="87">
+    <row r="79" spans="1:25" ht="105">
       <c r="A79" s="63">
         <v>66</v>
       </c>
@@ -15818,7 +15809,7 @@
       <c r="X79" s="65"/>
       <c r="Y79" s="65"/>
     </row>
-    <row r="80" spans="1:25" ht="58">
+    <row r="80" spans="1:25" ht="75">
       <c r="A80" s="58">
         <v>67</v>
       </c>
@@ -15887,7 +15878,7 @@
       <c r="X80" s="6"/>
       <c r="Y80"/>
     </row>
-    <row r="81" spans="1:25" ht="43.5">
+    <row r="81" spans="1:25" ht="45">
       <c r="A81" s="63">
         <v>68</v>
       </c>
@@ -16027,7 +16018,7 @@
       </c>
       <c r="Y82" s="80"/>
     </row>
-    <row r="83" spans="1:25" ht="29">
+    <row r="83" spans="1:25" ht="30">
       <c r="A83" s="63">
         <v>94</v>
       </c>
@@ -16098,7 +16089,7 @@
       </c>
       <c r="Y83" s="80"/>
     </row>
-    <row r="84" spans="1:25" ht="29">
+    <row r="84" spans="1:25" ht="30">
       <c r="A84" s="58">
         <v>96</v>
       </c>
@@ -16169,7 +16160,7 @@
       </c>
       <c r="Y84" s="69"/>
     </row>
-    <row r="85" spans="1:25" ht="29">
+    <row r="85" spans="1:25" ht="30">
       <c r="A85" s="63">
         <v>37</v>
       </c>
@@ -16242,7 +16233,7 @@
       </c>
       <c r="Y85" s="6"/>
     </row>
-    <row r="86" spans="1:25" ht="290">
+    <row r="86" spans="1:25" ht="300">
       <c r="A86" s="63">
         <v>19</v>
       </c>
@@ -16319,7 +16310,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="72.5">
+    <row r="87" spans="1:25" ht="75">
       <c r="A87" s="58">
         <v>75</v>
       </c>
@@ -16392,7 +16383,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="145">
+    <row r="88" spans="1:25" ht="150">
       <c r="A88" s="63">
         <v>132</v>
       </c>
@@ -16464,7 +16455,7 @@
       </c>
       <c r="X88" s="69"/>
     </row>
-    <row r="89" spans="1:25" ht="43.5">
+    <row r="89" spans="1:25" ht="45">
       <c r="A89" s="63">
         <v>133</v>
       </c>
@@ -16515,7 +16506,7 @@
       </c>
       <c r="Y89" s="80"/>
     </row>
-    <row r="90" spans="1:25" ht="72.5">
+    <row r="90" spans="1:25" ht="75">
       <c r="A90" s="63">
         <v>88</v>
       </c>
@@ -16566,7 +16557,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="159.5">
+    <row r="91" spans="1:25" ht="165">
       <c r="A91" s="58">
         <v>109</v>
       </c>
@@ -16639,7 +16630,7 @@
       </c>
       <c r="Y91" s="80"/>
     </row>
-    <row r="92" spans="1:25" ht="101.5">
+    <row r="92" spans="1:25" ht="105">
       <c r="A92" s="63">
         <v>127</v>
       </c>
@@ -16712,7 +16703,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="87">
+    <row r="93" spans="1:25" ht="90">
       <c r="A93" s="63">
         <v>3</v>
       </c>
@@ -16775,7 +16766,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="58" customHeight="1">
+    <row r="94" spans="1:25" ht="57.95" customHeight="1">
       <c r="A94" s="63">
         <v>4</v>
       </c>
@@ -16832,7 +16823,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
     </row>
-    <row r="95" spans="1:25" ht="275.5">
+    <row r="95" spans="1:25" ht="300">
       <c r="A95" s="58">
         <v>5</v>
       </c>
@@ -16907,7 +16898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="275.5">
+    <row r="96" spans="1:25" ht="300">
       <c r="A96" s="63">
         <v>6</v>
       </c>
@@ -16982,7 +16973,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="29">
+    <row r="97" spans="1:25" ht="30">
       <c r="A97" s="105">
         <v>91</v>
       </c>
@@ -17057,7 +17048,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="58">
+    <row r="98" spans="1:25" ht="60">
       <c r="A98" s="58">
         <v>100</v>
       </c>
@@ -17130,7 +17121,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="58">
+    <row r="99" spans="1:25" ht="60">
       <c r="A99" s="58">
         <v>102</v>
       </c>
@@ -17203,7 +17194,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="29">
+    <row r="100" spans="1:25" ht="30">
       <c r="A100" s="58">
         <v>128</v>
       </c>
@@ -17272,7 +17263,7 @@
       <c r="X100" s="12"/>
       <c r="Y100" s="104"/>
     </row>
-    <row r="101" spans="1:25" ht="29">
+    <row r="101" spans="1:25" ht="30">
       <c r="A101" s="58">
         <v>126</v>
       </c>
@@ -17347,7 +17338,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="29">
+    <row r="102" spans="1:25" ht="30">
       <c r="A102" s="58">
         <v>93</v>
       </c>
@@ -17414,7 +17405,7 @@
       </c>
       <c r="Y102" s="69"/>
     </row>
-    <row r="103" spans="1:25" ht="29">
+    <row r="103" spans="1:25" ht="30">
       <c r="A103" s="58">
         <v>95</v>
       </c>
@@ -17481,7 +17472,7 @@
       </c>
       <c r="Y103" s="69"/>
     </row>
-    <row r="104" spans="1:25" ht="29">
+    <row r="104" spans="1:25" ht="30">
       <c r="A104" s="63">
         <v>97</v>
       </c>
@@ -17548,7 +17539,7 @@
       </c>
       <c r="Y104" s="80"/>
     </row>
-    <row r="105" spans="1:25" ht="43.5">
+    <row r="105" spans="1:25" ht="45">
       <c r="A105" s="63">
         <v>120</v>
       </c>
@@ -17621,7 +17612,7 @@
       </c>
       <c r="Y105" s="69"/>
     </row>
-    <row r="106" spans="1:25" ht="58">
+    <row r="106" spans="1:25" ht="60">
       <c r="A106" s="63">
         <v>121</v>
       </c>
@@ -17681,7 +17672,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="58">
+    <row r="107" spans="1:25" ht="60">
       <c r="A107" s="58">
         <v>122</v>
       </c>
@@ -17745,7 +17736,7 @@
       <c r="W107" s="69"/>
       <c r="Y107" s="69"/>
     </row>
-    <row r="108" spans="1:25" ht="58">
+    <row r="108" spans="1:25" ht="60">
       <c r="A108" s="63">
         <v>124</v>
       </c>
@@ -17816,7 +17807,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="58">
+    <row r="109" spans="1:25" ht="60">
       <c r="A109" s="58">
         <v>125</v>
       </c>
@@ -17887,7 +17878,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="43.5">
+    <row r="110" spans="1:25" ht="45">
       <c r="A110" s="63">
         <v>1</v>
       </c>
@@ -17958,7 +17949,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="275.5">
+    <row r="111" spans="1:25" ht="300">
       <c r="A111" s="63">
         <v>2</v>
       </c>
@@ -18033,7 +18024,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="87">
+    <row r="112" spans="1:25" ht="120">
       <c r="A112" s="105">
         <v>27</v>
       </c>
@@ -18106,7 +18097,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="29">
+    <row r="113" spans="1:25" ht="30">
       <c r="A113" s="83">
         <v>79</v>
       </c>
@@ -18175,7 +18166,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="159.5">
+    <row r="114" spans="1:25" ht="180">
       <c r="A114" s="58">
         <v>82</v>
       </c>
@@ -18248,7 +18239,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="72.5">
+    <row r="115" spans="1:25" ht="75">
       <c r="A115" s="58">
         <v>83</v>
       </c>
@@ -18317,7 +18308,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="87">
+    <row r="116" spans="1:25" ht="105">
       <c r="A116" s="58">
         <v>89</v>
       </c>
@@ -18366,7 +18357,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="43.5">
+    <row r="117" spans="1:25" ht="60">
       <c r="A117" s="58">
         <v>90</v>
       </c>
@@ -18413,7 +18404,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="58">
+    <row r="118" spans="1:25" ht="60">
       <c r="A118" s="58">
         <v>101</v>
       </c>
@@ -18484,7 +18475,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="87">
+    <row r="119" spans="1:25" ht="90">
       <c r="A119" s="63">
         <v>103</v>
       </c>
@@ -18557,7 +18548,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="43.5">
+    <row r="120" spans="1:25" ht="45">
       <c r="A120" s="63">
         <v>105</v>
       </c>
@@ -18628,7 +18619,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="43.5">
+    <row r="121" spans="1:25" ht="45">
       <c r="A121" s="63">
         <v>106</v>
       </c>
@@ -18699,7 +18690,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="58">
+    <row r="122" spans="1:25" ht="60">
       <c r="A122" s="63">
         <v>107</v>
       </c>
@@ -18772,7 +18763,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="58">
+    <row r="123" spans="1:25" ht="60">
       <c r="A123" s="63">
         <v>129</v>
       </c>
@@ -18845,7 +18836,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="58">
+    <row r="124" spans="1:25" ht="60">
       <c r="A124" s="63">
         <v>130</v>
       </c>
@@ -18918,7 +18909,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="58">
+    <row r="125" spans="1:25" ht="60">
       <c r="A125" s="58">
         <v>131</v>
       </c>
@@ -18989,7 +18980,7 @@
       </c>
       <c r="Y125" s="69"/>
     </row>
-    <row r="126" spans="1:25" ht="43.5">
+    <row r="126" spans="1:25" ht="60">
       <c r="A126" s="63">
         <v>110</v>
       </c>
@@ -19060,7 +19051,7 @@
       </c>
       <c r="Y126" s="80"/>
     </row>
-    <row r="127" spans="1:25" ht="58">
+    <row r="127" spans="1:25" ht="75">
       <c r="A127" s="63">
         <v>111</v>
       </c>
@@ -19133,7 +19124,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="58">
+    <row r="128" spans="1:25" ht="75">
       <c r="A128" s="63">
         <v>112</v>
       </c>
@@ -19206,7 +19197,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="101.5">
+    <row r="129" spans="1:25" ht="120">
       <c r="A129" s="63">
         <v>113</v>
       </c>
@@ -19277,7 +19268,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="174">
+    <row r="130" spans="1:25" ht="195">
       <c r="A130" s="63">
         <v>114</v>
       </c>
@@ -19350,7 +19341,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="29">
+    <row r="131" spans="1:25" ht="30">
       <c r="A131" s="63">
         <v>118</v>
       </c>
@@ -19421,7 +19412,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="87">
+    <row r="132" spans="1:25" ht="90">
       <c r="A132" s="63">
         <v>119</v>
       </c>
@@ -19490,7 +19481,7 @@
       </c>
       <c r="Y132" s="80"/>
     </row>
-    <row r="133" spans="1:25" ht="116">
+    <row r="133" spans="1:25" ht="120">
       <c r="A133" s="63">
         <v>123</v>
       </c>
@@ -19606,10 +19597,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B133" xr:uid="{4BAB884F-5FC8-4273-A055-5B37FE11B019}">
@@ -19634,12 +19625,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>540</v>
       </c>
@@ -19669,39 +19660,39 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Y289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="N67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="71" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="71" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="72" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="72" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="72" customWidth="1"/>
     <col min="6" max="6" width="20" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="72" customWidth="1"/>
     <col min="8" max="8" width="34" style="72" customWidth="1"/>
     <col min="9" max="9" width="29" style="72" customWidth="1"/>
-    <col min="10" max="10" width="42.453125" style="72" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" style="72" customWidth="1"/>
     <col min="11" max="11" width="27" style="72" customWidth="1"/>
-    <col min="12" max="12" width="49.453125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="43.453125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="49.42578125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" style="72" customWidth="1"/>
     <col min="14" max="14" width="38" style="72" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" style="72" customWidth="1"/>
-    <col min="16" max="16" width="42.453125" style="72" customWidth="1"/>
-    <col min="17" max="17" width="43.1796875" style="72" customWidth="1"/>
-    <col min="18" max="19" width="34.453125" style="72" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" style="72" customWidth="1"/>
-    <col min="21" max="21" width="20.81640625" style="72" customWidth="1"/>
-    <col min="22" max="22" width="31.453125" style="72" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" style="72" customWidth="1"/>
-    <col min="24" max="24" width="31.453125" style="72" customWidth="1"/>
-    <col min="25" max="16384" width="16.453125" style="72"/>
+    <col min="15" max="15" width="23.42578125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="42.42578125" style="72" customWidth="1"/>
+    <col min="17" max="17" width="43.140625" style="72" customWidth="1"/>
+    <col min="18" max="19" width="34.42578125" style="72" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="72" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="72" customWidth="1"/>
+    <col min="22" max="22" width="31.42578125" style="72" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" style="72" customWidth="1"/>
+    <col min="24" max="24" width="31.42578125" style="72" customWidth="1"/>
+    <col min="25" max="16384" width="16.42578125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="41.25" customHeight="1">
@@ -19778,7 +19769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:24" customFormat="1" ht="130.5">
+    <row r="2" spans="1:24" customFormat="1" ht="135">
       <c r="A2" s="117">
         <v>1</v>
       </c>
@@ -19846,7 +19837,7 @@
       </c>
       <c r="X2" s="69"/>
     </row>
-    <row r="3" spans="1:24" customFormat="1" ht="29">
+    <row r="3" spans="1:24" customFormat="1" ht="30">
       <c r="A3" s="117">
         <v>2</v>
       </c>
@@ -19916,7 +19907,7 @@
       </c>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" customFormat="1" ht="29">
+    <row r="4" spans="1:24" customFormat="1" ht="45">
       <c r="A4" s="117">
         <v>132</v>
       </c>
@@ -20198,7 +20189,7 @@
       <c r="W9" s="69"/>
       <c r="X9" s="69"/>
     </row>
-    <row r="10" spans="1:24" customFormat="1" ht="130.5">
+    <row r="10" spans="1:24" customFormat="1" ht="135">
       <c r="A10" s="117">
         <v>3</v>
       </c>
@@ -20268,7 +20259,7 @@
       </c>
       <c r="X10" s="69"/>
     </row>
-    <row r="11" spans="1:24" customFormat="1" ht="174">
+    <row r="11" spans="1:24" customFormat="1" ht="225">
       <c r="A11" s="117">
         <v>4</v>
       </c>
@@ -20340,7 +20331,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" ht="174">
+    <row r="12" spans="1:24" customFormat="1" ht="225">
       <c r="A12" s="117">
         <v>109</v>
       </c>
@@ -20410,7 +20401,7 @@
       </c>
       <c r="X12" s="69"/>
     </row>
-    <row r="13" spans="1:24" customFormat="1" ht="29">
+    <row r="13" spans="1:24" customFormat="1" ht="30">
       <c r="A13" s="117">
         <v>5</v>
       </c>
@@ -20482,7 +20473,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="14" spans="1:24" customFormat="1" ht="72.5">
+    <row r="14" spans="1:24" customFormat="1" ht="75">
       <c r="A14" s="117">
         <v>6</v>
       </c>
@@ -20556,7 +20547,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="15" spans="1:24" customFormat="1" ht="72.5">
+    <row r="15" spans="1:24" customFormat="1" ht="90">
       <c r="A15" s="117">
         <v>7</v>
       </c>
@@ -20630,7 +20621,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="29">
+    <row r="16" spans="1:24" ht="45">
       <c r="A16" s="117">
         <v>8</v>
       </c>
@@ -20702,7 +20693,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="30">
       <c r="A17" s="117">
         <v>9</v>
       </c>
@@ -20830,7 +20821,7 @@
       </c>
       <c r="X18" s="69"/>
     </row>
-    <row r="19" spans="1:24" ht="43.5">
+    <row r="19" spans="1:24" ht="45">
       <c r="A19" s="117">
         <v>11</v>
       </c>
@@ -20900,7 +20891,7 @@
       </c>
       <c r="X19" s="112"/>
     </row>
-    <row r="20" spans="1:24" ht="58">
+    <row r="20" spans="1:24" ht="60">
       <c r="A20" s="58">
         <v>106</v>
       </c>
@@ -20968,7 +20959,7 @@
       <c r="W20" s="112"/>
       <c r="X20" s="112"/>
     </row>
-    <row r="21" spans="1:24" ht="29">
+    <row r="21" spans="1:24" ht="30">
       <c r="A21" s="58">
         <v>107</v>
       </c>
@@ -21036,7 +21027,7 @@
       <c r="W21" s="112"/>
       <c r="X21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="29">
+    <row r="22" spans="1:24" ht="30">
       <c r="A22" s="58">
         <v>108</v>
       </c>
@@ -21104,7 +21095,7 @@
       <c r="W22" s="112"/>
       <c r="X22" s="112"/>
     </row>
-    <row r="23" spans="1:24" ht="29">
+    <row r="23" spans="1:24" ht="30">
       <c r="A23" s="117">
         <v>12</v>
       </c>
@@ -21174,7 +21165,7 @@
       </c>
       <c r="X23" s="69"/>
     </row>
-    <row r="24" spans="1:24" customFormat="1" ht="29">
+    <row r="24" spans="1:24" customFormat="1" ht="30">
       <c r="A24" s="117">
         <v>13</v>
       </c>
@@ -21244,7 +21235,7 @@
       </c>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" customFormat="1" ht="43.5">
+    <row r="25" spans="1:24" customFormat="1" ht="45">
       <c r="A25" s="117">
         <v>14</v>
       </c>
@@ -21314,7 +21305,7 @@
       </c>
       <c r="X25" s="69"/>
     </row>
-    <row r="26" spans="1:24" customFormat="1" ht="29">
+    <row r="26" spans="1:24" customFormat="1" ht="45">
       <c r="A26" s="117">
         <v>62</v>
       </c>
@@ -21384,7 +21375,7 @@
       </c>
       <c r="X26" s="69"/>
     </row>
-    <row r="27" spans="1:24" ht="72.5">
+    <row r="27" spans="1:24" ht="90">
       <c r="A27" s="117">
         <v>15</v>
       </c>
@@ -21524,7 +21515,7 @@
       </c>
       <c r="X28" s="69"/>
     </row>
-    <row r="29" spans="1:24" customFormat="1" ht="43.5">
+    <row r="29" spans="1:24" customFormat="1" ht="45">
       <c r="A29" s="117">
         <v>63</v>
       </c>
@@ -21596,7 +21587,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="30" spans="1:24" customFormat="1" ht="29">
+    <row r="30" spans="1:24" customFormat="1" ht="45">
       <c r="A30" s="117">
         <v>110</v>
       </c>
@@ -21980,7 +21971,7 @@
       </c>
       <c r="X35" s="69"/>
     </row>
-    <row r="36" spans="1:25" customFormat="1" ht="29">
+    <row r="36" spans="1:25" customFormat="1" ht="30">
       <c r="A36" s="117">
         <v>22</v>
       </c>
@@ -22120,7 +22111,7 @@
       </c>
       <c r="X37" s="69"/>
     </row>
-    <row r="38" spans="1:25" customFormat="1" ht="29">
+    <row r="38" spans="1:25" customFormat="1" ht="45">
       <c r="A38" s="117">
         <v>111</v>
       </c>
@@ -22331,7 +22322,7 @@
       </c>
       <c r="X40" s="69"/>
     </row>
-    <row r="41" spans="1:25" customFormat="1" ht="29">
+    <row r="41" spans="1:25" customFormat="1" ht="45">
       <c r="A41" s="58">
         <v>112</v>
       </c>
@@ -22401,7 +22392,7 @@
       </c>
       <c r="X41" s="69"/>
     </row>
-    <row r="42" spans="1:25" customFormat="1" ht="29">
+    <row r="42" spans="1:25" customFormat="1" ht="30">
       <c r="A42" s="58">
         <v>26</v>
       </c>
@@ -22541,7 +22532,7 @@
       </c>
       <c r="X43" s="69"/>
     </row>
-    <row r="44" spans="1:25" customFormat="1" ht="29">
+    <row r="44" spans="1:25" customFormat="1" ht="45">
       <c r="A44" s="58">
         <v>113</v>
       </c>
@@ -22611,7 +22602,7 @@
       </c>
       <c r="X44" s="69"/>
     </row>
-    <row r="45" spans="1:25" customFormat="1" ht="29">
+    <row r="45" spans="1:25" customFormat="1" ht="30">
       <c r="A45" s="58">
         <v>28</v>
       </c>
@@ -22681,7 +22672,7 @@
       </c>
       <c r="X45" s="69"/>
     </row>
-    <row r="46" spans="1:25" customFormat="1" ht="43.5">
+    <row r="46" spans="1:25" customFormat="1" ht="45">
       <c r="A46" s="58">
         <v>114</v>
       </c>
@@ -22751,7 +22742,7 @@
       </c>
       <c r="X46" s="69"/>
     </row>
-    <row r="47" spans="1:25" customFormat="1" ht="29">
+    <row r="47" spans="1:25" customFormat="1" ht="30">
       <c r="A47" s="58">
         <v>29</v>
       </c>
@@ -22819,7 +22810,7 @@
       </c>
       <c r="X47" s="69"/>
     </row>
-    <row r="48" spans="1:25" customFormat="1" ht="29">
+    <row r="48" spans="1:25" customFormat="1" ht="45">
       <c r="A48" s="58">
         <v>115</v>
       </c>
@@ -22889,7 +22880,7 @@
       </c>
       <c r="X48" s="69"/>
     </row>
-    <row r="49" spans="1:24" customFormat="1" ht="174">
+    <row r="49" spans="1:24" customFormat="1" ht="225">
       <c r="A49" s="58">
         <v>30</v>
       </c>
@@ -22961,7 +22952,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="50" spans="1:24" customFormat="1" ht="130.5">
+    <row r="50" spans="1:24" customFormat="1" ht="150">
       <c r="A50" s="58">
         <v>31</v>
       </c>
@@ -23029,7 +23020,7 @@
       </c>
       <c r="X50" s="69"/>
     </row>
-    <row r="51" spans="1:24" s="113" customFormat="1" ht="29">
+    <row r="51" spans="1:24" s="113" customFormat="1" ht="30">
       <c r="A51" s="114">
         <v>116</v>
       </c>
@@ -23075,7 +23066,7 @@
       <c r="W51" s="115"/>
       <c r="X51" s="115"/>
     </row>
-    <row r="52" spans="1:24" customFormat="1" ht="29">
+    <row r="52" spans="1:24" customFormat="1" ht="30">
       <c r="A52" s="58">
         <v>32</v>
       </c>
@@ -23147,7 +23138,7 @@
       </c>
       <c r="X52" s="69"/>
     </row>
-    <row r="53" spans="1:24" customFormat="1" ht="43.5">
+    <row r="53" spans="1:24" customFormat="1" ht="45">
       <c r="A53" s="58">
         <v>33</v>
       </c>
@@ -23215,7 +23206,7 @@
       </c>
       <c r="X53" s="69"/>
     </row>
-    <row r="54" spans="1:24" customFormat="1" ht="29">
+    <row r="54" spans="1:24" customFormat="1" ht="30">
       <c r="A54" s="58">
         <v>34</v>
       </c>
@@ -23287,7 +23278,7 @@
       </c>
       <c r="X54" s="69"/>
     </row>
-    <row r="55" spans="1:24" customFormat="1" ht="29">
+    <row r="55" spans="1:24" customFormat="1" ht="30">
       <c r="A55" s="58">
         <v>35</v>
       </c>
@@ -23357,7 +23348,7 @@
       </c>
       <c r="X55" s="69"/>
     </row>
-    <row r="56" spans="1:24" customFormat="1" ht="29">
+    <row r="56" spans="1:24" customFormat="1" ht="30">
       <c r="A56" s="58">
         <v>36</v>
       </c>
@@ -23427,7 +23418,7 @@
       </c>
       <c r="X56" s="69"/>
     </row>
-    <row r="57" spans="1:24" customFormat="1" ht="29">
+    <row r="57" spans="1:24" customFormat="1" ht="45">
       <c r="A57" s="58">
         <v>117</v>
       </c>
@@ -23497,7 +23488,7 @@
       </c>
       <c r="X57" s="69"/>
     </row>
-    <row r="58" spans="1:24" customFormat="1" ht="29">
+    <row r="58" spans="1:24" customFormat="1" ht="45">
       <c r="A58" s="58">
         <v>37</v>
       </c>
@@ -23569,7 +23560,7 @@
       </c>
       <c r="X58" s="69"/>
     </row>
-    <row r="59" spans="1:24" customFormat="1" ht="87">
+    <row r="59" spans="1:24" customFormat="1" ht="90">
       <c r="A59" s="58">
         <v>38</v>
       </c>
@@ -23641,7 +23632,7 @@
       </c>
       <c r="X59" s="69"/>
     </row>
-    <row r="60" spans="1:24" customFormat="1" ht="29">
+    <row r="60" spans="1:24" customFormat="1" ht="45">
       <c r="A60" s="58">
         <v>39</v>
       </c>
@@ -23713,7 +23704,7 @@
       </c>
       <c r="X60" s="69"/>
     </row>
-    <row r="61" spans="1:24" customFormat="1" ht="29">
+    <row r="61" spans="1:24" customFormat="1" ht="45">
       <c r="A61" s="58">
         <v>40</v>
       </c>
@@ -23785,7 +23776,7 @@
       </c>
       <c r="X61" s="69"/>
     </row>
-    <row r="62" spans="1:24" customFormat="1" ht="29">
+    <row r="62" spans="1:24" customFormat="1" ht="45">
       <c r="A62" s="58">
         <v>41</v>
       </c>
@@ -23857,7 +23848,7 @@
       </c>
       <c r="X62" s="69"/>
     </row>
-    <row r="63" spans="1:24" customFormat="1" ht="29">
+    <row r="63" spans="1:24" customFormat="1" ht="45">
       <c r="A63" s="58">
         <v>42</v>
       </c>
@@ -23927,7 +23918,7 @@
       </c>
       <c r="X63" s="69"/>
     </row>
-    <row r="64" spans="1:24" customFormat="1" ht="43.5">
+    <row r="64" spans="1:24" customFormat="1" ht="45">
       <c r="A64" s="58">
         <v>43</v>
       </c>
@@ -23995,7 +23986,7 @@
       </c>
       <c r="X64" s="69"/>
     </row>
-    <row r="65" spans="1:24" customFormat="1" ht="43.5">
+    <row r="65" spans="1:24" customFormat="1" ht="60">
       <c r="A65" s="58">
         <v>44</v>
       </c>
@@ -24069,7 +24060,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="66" spans="1:24" customFormat="1" ht="87">
+    <row r="66" spans="1:24" customFormat="1" ht="90">
       <c r="A66" s="58">
         <v>45</v>
       </c>
@@ -24143,7 +24134,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="67" spans="1:24" customFormat="1" ht="87">
+    <row r="67" spans="1:24" customFormat="1" ht="90">
       <c r="A67" s="58">
         <v>46</v>
       </c>
@@ -24211,7 +24202,7 @@
       <c r="W67" s="69"/>
       <c r="X67" s="69"/>
     </row>
-    <row r="68" spans="1:24" customFormat="1" ht="29">
+    <row r="68" spans="1:24" customFormat="1" ht="45">
       <c r="A68" s="58">
         <v>118</v>
       </c>
@@ -24281,7 +24272,7 @@
       </c>
       <c r="X68" s="69"/>
     </row>
-    <row r="69" spans="1:24" customFormat="1" ht="43.5">
+    <row r="69" spans="1:24" customFormat="1" ht="45">
       <c r="A69" s="58">
         <v>47</v>
       </c>
@@ -24353,7 +24344,7 @@
       </c>
       <c r="X69" s="69"/>
     </row>
-    <row r="70" spans="1:24" customFormat="1" ht="87">
+    <row r="70" spans="1:24" customFormat="1" ht="90">
       <c r="A70" s="58">
         <v>48</v>
       </c>
@@ -24425,7 +24416,7 @@
       </c>
       <c r="X70" s="69"/>
     </row>
-    <row r="71" spans="1:24" customFormat="1" ht="43.5">
+    <row r="71" spans="1:24" customFormat="1" ht="45">
       <c r="A71" s="58">
         <v>49</v>
       </c>
@@ -24497,7 +24488,7 @@
       </c>
       <c r="X71" s="69"/>
     </row>
-    <row r="72" spans="1:24" customFormat="1" ht="43.5">
+    <row r="72" spans="1:24" customFormat="1" ht="45">
       <c r="A72" s="58">
         <v>50</v>
       </c>
@@ -24569,7 +24560,7 @@
       </c>
       <c r="X72" s="69"/>
     </row>
-    <row r="73" spans="1:24" customFormat="1" ht="43.5">
+    <row r="73" spans="1:24" customFormat="1" ht="45">
       <c r="A73" s="58">
         <v>51</v>
       </c>
@@ -24641,7 +24632,7 @@
       </c>
       <c r="X73" s="69"/>
     </row>
-    <row r="74" spans="1:24" customFormat="1" ht="43.5">
+    <row r="74" spans="1:24" customFormat="1" ht="45">
       <c r="A74" s="58">
         <v>52</v>
       </c>
@@ -24711,7 +24702,7 @@
       </c>
       <c r="X74" s="69"/>
     </row>
-    <row r="75" spans="1:24" customFormat="1" ht="43.5">
+    <row r="75" spans="1:24" customFormat="1" ht="45">
       <c r="A75" s="58">
         <v>53</v>
       </c>
@@ -24779,7 +24770,7 @@
       </c>
       <c r="X75" s="69"/>
     </row>
-    <row r="76" spans="1:24" customFormat="1" ht="43.5">
+    <row r="76" spans="1:24" customFormat="1" ht="60">
       <c r="A76" s="58">
         <v>54</v>
       </c>
@@ -24853,7 +24844,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="77" spans="1:24" customFormat="1" ht="43.5">
+    <row r="77" spans="1:24" customFormat="1" ht="45">
       <c r="A77" s="58">
         <v>56</v>
       </c>
@@ -24921,7 +24912,7 @@
       <c r="W77" s="69"/>
       <c r="X77" s="69"/>
     </row>
-    <row r="78" spans="1:24" customFormat="1" ht="43.5">
+    <row r="78" spans="1:24" customFormat="1" ht="45">
       <c r="A78" s="58">
         <v>119</v>
       </c>
@@ -24989,7 +24980,7 @@
       </c>
       <c r="X78" s="69"/>
     </row>
-    <row r="79" spans="1:24" customFormat="1" ht="174">
+    <row r="79" spans="1:24" customFormat="1" ht="225">
       <c r="A79" s="58">
         <v>57</v>
       </c>
@@ -25061,7 +25052,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="80" spans="1:24" customFormat="1" ht="72.5">
+    <row r="80" spans="1:24" customFormat="1" ht="105">
       <c r="A80" s="58">
         <v>58</v>
       </c>
@@ -25131,7 +25122,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="81" spans="1:24" customFormat="1" ht="174">
+    <row r="81" spans="1:24" customFormat="1" ht="225">
       <c r="A81" s="58">
         <v>59</v>
       </c>
@@ -25199,7 +25190,7 @@
       </c>
       <c r="X81" s="69"/>
     </row>
-    <row r="82" spans="1:24" customFormat="1" ht="174">
+    <row r="82" spans="1:24" customFormat="1" ht="180">
       <c r="A82" s="58">
         <v>60</v>
       </c>
@@ -25267,7 +25258,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="83" spans="1:24" customFormat="1" ht="29">
+    <row r="83" spans="1:24" customFormat="1" ht="30">
       <c r="A83" s="58">
         <v>61</v>
       </c>
@@ -25333,7 +25324,7 @@
       </c>
       <c r="X83" s="69"/>
     </row>
-    <row r="84" spans="1:24" customFormat="1" ht="29">
+    <row r="84" spans="1:24" customFormat="1" ht="30">
       <c r="A84" s="58">
         <v>64</v>
       </c>
@@ -25403,7 +25394,7 @@
       </c>
       <c r="X84" s="69"/>
     </row>
-    <row r="85" spans="1:24" customFormat="1" ht="29">
+    <row r="85" spans="1:24" customFormat="1" ht="30">
       <c r="A85" s="58">
         <v>65</v>
       </c>
@@ -25469,7 +25460,7 @@
       </c>
       <c r="X85" s="69"/>
     </row>
-    <row r="86" spans="1:24" customFormat="1" ht="87">
+    <row r="86" spans="1:24" customFormat="1" ht="90">
       <c r="A86" s="58">
         <v>66</v>
       </c>
@@ -25535,7 +25526,7 @@
       </c>
       <c r="X86" s="69"/>
     </row>
-    <row r="87" spans="1:24" customFormat="1" ht="29">
+    <row r="87" spans="1:24" customFormat="1" ht="30">
       <c r="A87" s="58">
         <v>67</v>
       </c>
@@ -25601,7 +25592,7 @@
       </c>
       <c r="X87" s="69"/>
     </row>
-    <row r="88" spans="1:24" customFormat="1" ht="43.5">
+    <row r="88" spans="1:24" customFormat="1" ht="45">
       <c r="A88" s="58">
         <v>68</v>
       </c>
@@ -25671,7 +25662,7 @@
       </c>
       <c r="X88" s="69"/>
     </row>
-    <row r="89" spans="1:24" customFormat="1" ht="43.5">
+    <row r="89" spans="1:24" customFormat="1" ht="60">
       <c r="A89" s="58">
         <v>69</v>
       </c>
@@ -25737,7 +25728,7 @@
       </c>
       <c r="X89" s="69"/>
     </row>
-    <row r="90" spans="1:24" customFormat="1" ht="29">
+    <row r="90" spans="1:24" customFormat="1" ht="30">
       <c r="A90" s="58">
         <v>70</v>
       </c>
@@ -25807,7 +25798,7 @@
       </c>
       <c r="X90" s="69"/>
     </row>
-    <row r="91" spans="1:24" customFormat="1" ht="29">
+    <row r="91" spans="1:24" customFormat="1" ht="30">
       <c r="A91" s="58">
         <v>120</v>
       </c>
@@ -25873,7 +25864,7 @@
       </c>
       <c r="X91" s="69"/>
     </row>
-    <row r="92" spans="1:24" customFormat="1" ht="87">
+    <row r="92" spans="1:24" customFormat="1" ht="90">
       <c r="A92" s="58">
         <v>71</v>
       </c>
@@ -25939,7 +25930,7 @@
       </c>
       <c r="X92" s="69"/>
     </row>
-    <row r="93" spans="1:24" customFormat="1" ht="29">
+    <row r="93" spans="1:24" customFormat="1" ht="30">
       <c r="A93" s="58">
         <v>72</v>
       </c>
@@ -26011,7 +26002,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="94" spans="1:24" customFormat="1" ht="29">
+    <row r="94" spans="1:24" customFormat="1" ht="30">
       <c r="A94" s="58">
         <v>73</v>
       </c>
@@ -26081,7 +26072,7 @@
       </c>
       <c r="X94" s="69"/>
     </row>
-    <row r="95" spans="1:24" customFormat="1" ht="43.5">
+    <row r="95" spans="1:24" customFormat="1" ht="45">
       <c r="A95" s="58">
         <v>74</v>
       </c>
@@ -26151,7 +26142,7 @@
       </c>
       <c r="X95" s="69"/>
     </row>
-    <row r="96" spans="1:24" customFormat="1" ht="29">
+    <row r="96" spans="1:24" customFormat="1" ht="30">
       <c r="A96" s="58">
         <v>75</v>
       </c>
@@ -26217,7 +26208,7 @@
       </c>
       <c r="X96" s="69"/>
     </row>
-    <row r="97" spans="1:24" customFormat="1" ht="29">
+    <row r="97" spans="1:24" customFormat="1" ht="30">
       <c r="A97" s="58">
         <v>121</v>
       </c>
@@ -26283,7 +26274,7 @@
       </c>
       <c r="X97" s="69"/>
     </row>
-    <row r="98" spans="1:24" customFormat="1" ht="174">
+    <row r="98" spans="1:24" customFormat="1" ht="225">
       <c r="A98" s="58">
         <v>77</v>
       </c>
@@ -26355,7 +26346,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="99" spans="1:24" customFormat="1" ht="87">
+    <row r="99" spans="1:24" customFormat="1" ht="90">
       <c r="A99" s="58">
         <v>78</v>
       </c>
@@ -26421,7 +26412,7 @@
       </c>
       <c r="X99" s="69"/>
     </row>
-    <row r="100" spans="1:24" customFormat="1" ht="29">
+    <row r="100" spans="1:24" customFormat="1" ht="30">
       <c r="A100" s="58">
         <v>79</v>
       </c>
@@ -26493,7 +26484,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="101" spans="1:24" customFormat="1" ht="29">
+    <row r="101" spans="1:24" customFormat="1" ht="30">
       <c r="A101" s="58">
         <v>80</v>
       </c>
@@ -26563,7 +26554,7 @@
       </c>
       <c r="X101" s="69"/>
     </row>
-    <row r="102" spans="1:24" customFormat="1" ht="43.5">
+    <row r="102" spans="1:24" customFormat="1" ht="45">
       <c r="A102" s="58">
         <v>81</v>
       </c>
@@ -26633,7 +26624,7 @@
       </c>
       <c r="X102" s="69"/>
     </row>
-    <row r="103" spans="1:24" customFormat="1" ht="29">
+    <row r="103" spans="1:24" customFormat="1" ht="30">
       <c r="A103" s="58">
         <v>82</v>
       </c>
@@ -26699,7 +26690,7 @@
       </c>
       <c r="X103" s="69"/>
     </row>
-    <row r="104" spans="1:24" customFormat="1" ht="29">
+    <row r="104" spans="1:24" customFormat="1" ht="30">
       <c r="A104" s="58">
         <v>122</v>
       </c>
@@ -26765,7 +26756,7 @@
       </c>
       <c r="X104" s="69"/>
     </row>
-    <row r="105" spans="1:24" customFormat="1" ht="29">
+    <row r="105" spans="1:24" customFormat="1" ht="30">
       <c r="A105" s="58">
         <v>83</v>
       </c>
@@ -26831,7 +26822,7 @@
       </c>
       <c r="X105" s="69"/>
     </row>
-    <row r="106" spans="1:24" ht="29">
+    <row r="106" spans="1:24" ht="30">
       <c r="A106" s="58">
         <v>84</v>
       </c>
@@ -26901,7 +26892,7 @@
       </c>
       <c r="X106" s="69"/>
     </row>
-    <row r="107" spans="1:24" ht="43.5">
+    <row r="107" spans="1:24" ht="45">
       <c r="A107" s="58">
         <v>85</v>
       </c>
@@ -26971,7 +26962,7 @@
       </c>
       <c r="X107" s="69"/>
     </row>
-    <row r="108" spans="1:24" ht="43.5">
+    <row r="108" spans="1:24" ht="60">
       <c r="A108" s="58">
         <v>86</v>
       </c>
@@ -27041,7 +27032,7 @@
       </c>
       <c r="X108" s="69"/>
     </row>
-    <row r="109" spans="1:24" ht="29">
+    <row r="109" spans="1:24" ht="30">
       <c r="A109" s="58">
         <v>123</v>
       </c>
@@ -27107,7 +27098,7 @@
       </c>
       <c r="X109" s="69"/>
     </row>
-    <row r="110" spans="1:24" ht="87">
+    <row r="110" spans="1:24" ht="90">
       <c r="A110" s="58">
         <v>87</v>
       </c>
@@ -27173,7 +27164,7 @@
       </c>
       <c r="X110" s="69"/>
     </row>
-    <row r="111" spans="1:24" ht="29">
+    <row r="111" spans="1:24" ht="30">
       <c r="A111" s="58">
         <v>88</v>
       </c>
@@ -27245,7 +27236,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="29">
+    <row r="112" spans="1:24" ht="30">
       <c r="A112" s="58">
         <v>89</v>
       </c>
@@ -27315,7 +27306,7 @@
       </c>
       <c r="X112" s="69"/>
     </row>
-    <row r="113" spans="1:24" ht="43.5">
+    <row r="113" spans="1:24" ht="45">
       <c r="A113" s="58">
         <v>90</v>
       </c>
@@ -27385,7 +27376,7 @@
       </c>
       <c r="X113" s="69"/>
     </row>
-    <row r="114" spans="1:24" ht="29">
+    <row r="114" spans="1:24" ht="30">
       <c r="A114" s="58">
         <v>91</v>
       </c>
@@ -27453,7 +27444,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="29">
+    <row r="115" spans="1:24" ht="30">
       <c r="A115" s="58">
         <v>124</v>
       </c>
@@ -27519,7 +27510,7 @@
       </c>
       <c r="X115" s="69"/>
     </row>
-    <row r="116" spans="1:24" ht="29">
+    <row r="116" spans="1:24" ht="30">
       <c r="A116" s="58">
         <v>92</v>
       </c>
@@ -27587,7 +27578,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="29">
+    <row r="117" spans="1:24" ht="30">
       <c r="A117" s="58">
         <v>93</v>
       </c>
@@ -27659,7 +27650,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="29">
+    <row r="118" spans="1:24" ht="30">
       <c r="A118" s="58">
         <v>94</v>
       </c>
@@ -27725,7 +27716,7 @@
       </c>
       <c r="X118" s="69"/>
     </row>
-    <row r="119" spans="1:24" ht="43.5">
+    <row r="119" spans="1:24" ht="45">
       <c r="A119" s="58">
         <v>95</v>
       </c>
@@ -27795,7 +27786,7 @@
       </c>
       <c r="X119" s="69"/>
     </row>
-    <row r="120" spans="1:24" ht="29">
+    <row r="120" spans="1:24" ht="30">
       <c r="A120" s="58">
         <v>96</v>
       </c>
@@ -27861,7 +27852,7 @@
       </c>
       <c r="X120" s="69"/>
     </row>
-    <row r="121" spans="1:24" ht="58">
+    <row r="121" spans="1:24" ht="60">
       <c r="A121" s="58">
         <v>97</v>
       </c>
@@ -27933,7 +27924,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="87">
+    <row r="122" spans="1:24" ht="90">
       <c r="A122" s="58">
         <v>98</v>
       </c>
@@ -27999,7 +27990,7 @@
       </c>
       <c r="X122" s="69"/>
     </row>
-    <row r="123" spans="1:24" ht="29">
+    <row r="123" spans="1:24" ht="30">
       <c r="A123" s="58">
         <v>99</v>
       </c>
@@ -28065,7 +28056,7 @@
       </c>
       <c r="X123" s="69"/>
     </row>
-    <row r="124" spans="1:24" ht="29">
+    <row r="124" spans="1:24" ht="30">
       <c r="A124" s="58">
         <v>125</v>
       </c>
@@ -28131,7 +28122,7 @@
       </c>
       <c r="X124" s="69"/>
     </row>
-    <row r="125" spans="1:24" ht="43.5">
+    <row r="125" spans="1:24" ht="45">
       <c r="A125" s="58">
         <v>100</v>
       </c>
@@ -28201,7 +28192,7 @@
       </c>
       <c r="X125" s="69"/>
     </row>
-    <row r="126" spans="1:24" ht="87">
+    <row r="126" spans="1:24" ht="90">
       <c r="A126" s="58">
         <v>101</v>
       </c>
@@ -28263,7 +28254,7 @@
       <c r="W126" s="69"/>
       <c r="X126" s="69"/>
     </row>
-    <row r="127" spans="1:24" ht="29">
+    <row r="127" spans="1:24" ht="30">
       <c r="A127" s="58">
         <v>102</v>
       </c>
@@ -28333,7 +28324,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="29">
+    <row r="128" spans="1:24" ht="30">
       <c r="A128" s="58">
         <v>103</v>
       </c>
@@ -28403,7 +28394,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="43.5">
+    <row r="129" spans="1:24" ht="45">
       <c r="A129" s="58">
         <v>104</v>
       </c>
@@ -28539,7 +28530,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="29">
+    <row r="131" spans="1:24" ht="45">
       <c r="A131" s="58">
         <v>138</v>
       </c>
@@ -28727,7 +28718,7 @@
       <c r="W134" s="69"/>
       <c r="X134" s="69"/>
     </row>
-    <row r="135" spans="1:24" ht="29">
+    <row r="135" spans="1:24" ht="30">
       <c r="A135" s="58">
         <v>129</v>
       </c>
@@ -28875,7 +28866,7 @@
       <c r="W137" s="69"/>
       <c r="X137" s="69"/>
     </row>
-    <row r="138" spans="1:24" ht="29">
+    <row r="138" spans="1:24" ht="30">
       <c r="A138" s="58">
         <v>139</v>
       </c>
@@ -28945,7 +28936,7 @@
       </c>
       <c r="X138" s="69"/>
     </row>
-    <row r="139" spans="1:24" ht="29">
+    <row r="139" spans="1:24" ht="45">
       <c r="A139" s="58">
         <v>140</v>
       </c>
@@ -29193,25 +29184,25 @@
       <c r="A143" s="58">
         <v>144</v>
       </c>
-      <c r="B143" s="154" t="s">
+      <c r="B143" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="155" t="s">
+      <c r="C143" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="D143" s="155" t="s">
+      <c r="D143" s="69" t="s">
         <v>907</v>
       </c>
-      <c r="E143" s="155">
+      <c r="E143" s="69">
         <v>1.28</v>
       </c>
-      <c r="F143" s="155" t="s">
+      <c r="F143" s="69" t="s">
         <v>1293</v>
       </c>
-      <c r="G143" s="155" t="s">
+      <c r="G143" s="69" t="s">
         <v>1315</v>
       </c>
-      <c r="H143" s="156" t="s">
+      <c r="H143" s="6" t="s">
         <v>872</v>
       </c>
       <c r="I143" s="69" t="s">
@@ -29251,25 +29242,25 @@
       <c r="A144" s="58">
         <v>145</v>
       </c>
-      <c r="B144" s="154" t="s">
+      <c r="B144" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="155" t="s">
+      <c r="C144" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="D144" s="155" t="s">
+      <c r="D144" s="69" t="s">
         <v>907</v>
       </c>
-      <c r="E144" s="155">
+      <c r="E144" s="69">
         <v>1.28</v>
       </c>
-      <c r="F144" s="155" t="s">
+      <c r="F144" s="69" t="s">
         <v>1293</v>
       </c>
-      <c r="G144" s="155" t="s">
+      <c r="G144" s="69" t="s">
         <v>1315</v>
       </c>
-      <c r="H144" s="155" t="s">
+      <c r="H144" s="69" t="s">
         <v>1322</v>
       </c>
       <c r="I144" s="69"/>
@@ -33103,12 +33094,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1">
@@ -33617,7 +33608,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{E2A45696-5E28-4464-A465-2CEFAA46FFE4}">
@@ -33641,18 +33632,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="36.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" customWidth="1"/>
     <col min="7" max="10" width="11" customWidth="1"/>
     <col min="11" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" ht="30">
       <c r="B2" t="s">
         <v>833</v>
       </c>
@@ -33707,7 +33698,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="30">
       <c r="B20" t="s">
         <v>823</v>
       </c>
@@ -33771,23 +33762,23 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" style="2"/>
-    <col min="4" max="4" width="6.453125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" style="2"/>
+    <col min="3" max="3" width="5.42578125" style="2"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="2"/>
     <col min="6" max="6" width="5" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" customWidth="1"/>
-    <col min="11" max="12" width="5.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.453125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="47" width="4.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" customWidth="1"/>
+    <col min="11" max="12" width="5.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="47" width="4.85546875" style="17" customWidth="1"/>
     <col min="48" max="48" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="5.453125" style="2"/>
+    <col min="49" max="16384" width="5.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:56" hidden="1">
@@ -33936,7 +33927,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="14.5" hidden="1" customHeight="1">
+    <row r="3" spans="1:56" ht="14.45" hidden="1" customHeight="1">
       <c r="A3" s="2">
         <v>12</v>
       </c>
@@ -34636,7 +34627,7 @@
       <c r="D7" s="153"/>
       <c r="AH7" s="27"/>
     </row>
-    <row r="8" spans="1:56" ht="15" thickBot="1">
+    <row r="8" spans="1:56" ht="15.75" thickBot="1">
       <c r="D8" s="153"/>
       <c r="F8" s="24" t="s">
         <v>554</v>
@@ -34694,7 +34685,7 @@
       <c r="BC8" s="31"/>
       <c r="BD8" s="30"/>
     </row>
-    <row r="9" spans="1:56" ht="15" thickBot="1">
+    <row r="9" spans="1:56" ht="15.75" thickBot="1">
       <c r="D9" s="153"/>
       <c r="I9" s="27"/>
       <c r="N9" s="36"/>
@@ -34717,7 +34708,7 @@
       <c r="BC9" s="17"/>
       <c r="BD9" s="36"/>
     </row>
-    <row r="10" spans="1:56" ht="29.5" thickBot="1">
+    <row r="10" spans="1:56" ht="30.75" thickBot="1">
       <c r="D10" s="153"/>
       <c r="F10" s="24" t="s">
         <v>557</v>
@@ -34775,7 +34766,7 @@
       <c r="BC10" s="44"/>
       <c r="BD10" s="42"/>
     </row>
-    <row r="11" spans="1:56" ht="15" thickBot="1">
+    <row r="11" spans="1:56" ht="15.75" thickBot="1">
       <c r="D11" s="153"/>
       <c r="G11"/>
       <c r="I11" s="27"/>
@@ -34790,7 +34781,7 @@
       <c r="BB11" s="17"/>
       <c r="BC11" s="17"/>
     </row>
-    <row r="12" spans="1:56" ht="15" thickBot="1">
+    <row r="12" spans="1:56" ht="15.75" thickBot="1">
       <c r="D12" s="153"/>
       <c r="G12"/>
       <c r="I12" s="39" t="s">
@@ -34843,12 +34834,12 @@
       <c r="BC12" s="44"/>
       <c r="BD12" s="42"/>
     </row>
-    <row r="13" spans="1:56" ht="15" thickBot="1">
+    <row r="13" spans="1:56" ht="15.75" thickBot="1">
       <c r="D13" s="153"/>
       <c r="G13"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:56" ht="15" thickBot="1">
+    <row r="14" spans="1:56" ht="15.75" thickBot="1">
       <c r="D14" s="153"/>
       <c r="G14"/>
       <c r="I14" s="47" t="s">
@@ -34946,12 +34937,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004309D8389C5A084A8EB9FED342634609" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1ee2663b349001e41875756695405cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8508775-6f2a-451e-b0c0-0da0ba3b654b" xmlns:ns3="f15e5eab-f649-4efd-a2c2-4935b72130ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6561bc30f91fc8f80cc55469271a584" ns2:_="" ns3:_="">
     <xsd:import namespace="e8508775-6f2a-451e-b0c0-0da0ba3b654b"/>
@@ -35116,6 +35101,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91500E67-CFBD-4E57-93CA-25297AD67667}">
   <ds:schemaRefs>
@@ -35125,15 +35116,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA6218BD-C386-4EBA-AE3F-6A1B03CAFB13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35150,4 +35132,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>